--- a/data/WINTER2425.xlsx
+++ b/data/WINTER2425.xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="zD2JfK7Fcl6BScZ8Yl726TFkgbzFrx1sqP9ssPaI7Bg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="hwnA9s8yW87m1vnOTmWVuZevz/HY4dRMq2Er+PrmNsM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
   <si>
     <t>WINTER BEST PAIRS COMP(SUNDAY)</t>
   </si>
@@ -159,7 +159,7 @@
     <t>PAUL HANCOX</t>
   </si>
   <si>
-    <t>FRED HOLLIWORTH</t>
+    <t>FRED HOLLINGWORTH</t>
   </si>
   <si>
     <t>SCOTT LEONARDE</t>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>TOTAL SCORE</t>
-  </si>
-  <si>
-    <t>STEW TAYLOR</t>
   </si>
   <si>
     <t>SIMON EDWARDS</t>
@@ -781,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="104">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -846,11 +843,8 @@
     <xf borderId="20" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="20" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="21" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="22" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -869,28 +863,19 @@
     <xf borderId="26" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="26" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="26" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="11" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="11" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="20" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="20" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="21" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="27" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -909,17 +894,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="30" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="21" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="26" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="31" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="31" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="32" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -1000,15 +982,12 @@
     <xf borderId="42" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="42" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="42" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="42" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="33" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="42" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -1040,14 +1019,11 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1743,110 +1719,110 @@
       <c r="S12" s="31">
         <v>31.0</v>
       </c>
-      <c r="T12" s="32">
+      <c r="T12" s="31">
         <v>30.0</v>
       </c>
-      <c r="U12" s="32">
+      <c r="U12" s="31">
         <v>29.0</v>
       </c>
-      <c r="V12" s="32">
+      <c r="V12" s="31">
         <v>30.0</v>
       </c>
-      <c r="W12" s="32">
+      <c r="W12" s="31">
         <v>33.0</v>
       </c>
-      <c r="X12" s="32">
+      <c r="X12" s="31">
         <v>33.0</v>
       </c>
       <c r="Y12" s="31"/>
-      <c r="Z12" s="33">
+      <c r="Z12" s="32">
         <v>35.0</v>
       </c>
-      <c r="AA12" s="33">
+      <c r="AA12" s="32">
         <v>29.0</v>
       </c>
-      <c r="AB12" s="34">
+      <c r="AB12" s="33">
         <f t="shared" ref="AB12:AB31" si="1">SUM(D12:Y12)</f>
         <v>500</v>
       </c>
-      <c r="AC12" s="35">
+      <c r="AC12" s="34">
         <f>SUM(AB12:AB13)</f>
         <v>1010</v>
       </c>
       <c r="AD12" s="5"/>
-      <c r="AE12" s="36"/>
+      <c r="AE12" s="35"/>
     </row>
     <row r="13">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40">
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39">
         <v>32.0</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40">
+      <c r="E13" s="39"/>
+      <c r="F13" s="39">
         <v>35.0</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="39">
         <v>35.0</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="39">
         <v>31.0</v>
       </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40">
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39">
         <v>34.0</v>
       </c>
-      <c r="O13" s="40">
+      <c r="O13" s="39">
         <v>36.0</v>
       </c>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40">
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39">
         <v>32.0</v>
       </c>
-      <c r="R13" s="40">
+      <c r="R13" s="39">
         <v>36.0</v>
       </c>
-      <c r="S13" s="40">
+      <c r="S13" s="39">
         <v>35.0</v>
       </c>
-      <c r="T13" s="41">
+      <c r="T13" s="39">
         <v>34.0</v>
       </c>
-      <c r="U13" s="41">
+      <c r="U13" s="39">
         <v>34.0</v>
       </c>
-      <c r="V13" s="42">
+      <c r="V13" s="40">
         <v>41.0</v>
       </c>
-      <c r="W13" s="41">
+      <c r="W13" s="39">
         <v>28.0</v>
       </c>
-      <c r="X13" s="41">
+      <c r="X13" s="39">
         <v>31.0</v>
       </c>
-      <c r="Y13" s="42">
+      <c r="Y13" s="40">
         <v>36.0</v>
       </c>
-      <c r="Z13" s="43">
+      <c r="Z13" s="41">
         <v>39.0</v>
       </c>
-      <c r="AA13" s="44">
+      <c r="AA13" s="42">
         <v>35.0</v>
       </c>
-      <c r="AB13" s="34">
+      <c r="AB13" s="33">
         <f t="shared" si="1"/>
         <v>510</v>
       </c>
       <c r="AC13" s="6"/>
       <c r="AD13" s="8"/>
-      <c r="AE13" s="36"/>
+      <c r="AE13" s="35"/>
     </row>
     <row r="14">
       <c r="A14" s="28" t="s">
@@ -1871,7 +1847,7 @@
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
       <c r="N14" s="31"/>
-      <c r="O14" s="45">
+      <c r="O14" s="43">
         <v>38.0</v>
       </c>
       <c r="P14" s="31"/>
@@ -1879,85 +1855,85 @@
       <c r="R14" s="31"/>
       <c r="S14" s="31"/>
       <c r="T14" s="31"/>
-      <c r="U14" s="46">
+      <c r="U14" s="44">
         <v>38.0</v>
       </c>
       <c r="V14" s="31"/>
-      <c r="W14" s="32">
+      <c r="W14" s="31">
         <v>31.0</v>
       </c>
       <c r="X14" s="31"/>
       <c r="Y14" s="31"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="34">
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="33">
         <f t="shared" si="1"/>
         <v>203</v>
       </c>
-      <c r="AC14" s="35">
+      <c r="AC14" s="34">
         <f>SUM(AB14:AB15)</f>
         <v>535</v>
       </c>
       <c r="AD14" s="5"/>
-      <c r="AE14" s="36"/>
+      <c r="AE14" s="35"/>
     </row>
     <row r="15">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40">
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39">
         <v>37.0</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40">
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39">
         <v>31.0</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="39">
         <v>38.0</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="39">
         <v>30.0</v>
       </c>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40">
+      <c r="J15" s="39"/>
+      <c r="K15" s="39">
         <v>36.0</v>
       </c>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40">
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39">
         <v>32.0</v>
       </c>
-      <c r="O15" s="40">
+      <c r="O15" s="39">
         <v>33.0</v>
       </c>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40">
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39">
         <v>28.0</v>
       </c>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="41">
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39">
         <v>32.0</v>
       </c>
-      <c r="V15" s="41">
+      <c r="V15" s="39">
         <v>35.0</v>
       </c>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="34">
+      <c r="W15" s="39"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="33">
         <f t="shared" si="1"/>
         <v>332</v>
       </c>
       <c r="AC15" s="6"/>
       <c r="AD15" s="8"/>
-      <c r="AE15" s="36"/>
+      <c r="AE15" s="35"/>
     </row>
     <row r="16">
       <c r="A16" s="28" t="s">
@@ -2005,102 +1981,102 @@
       <c r="S16" s="31">
         <v>31.0</v>
       </c>
-      <c r="T16" s="32">
+      <c r="T16" s="31">
         <v>34.0</v>
       </c>
-      <c r="U16" s="32">
+      <c r="U16" s="31">
         <v>25.0</v>
       </c>
-      <c r="V16" s="32">
+      <c r="V16" s="31">
         <v>30.0</v>
       </c>
-      <c r="W16" s="32">
+      <c r="W16" s="31">
         <v>33.0</v>
       </c>
       <c r="X16" s="31"/>
       <c r="Y16" s="31"/>
-      <c r="Z16" s="33">
+      <c r="Z16" s="32">
         <v>33.0</v>
       </c>
-      <c r="AA16" s="33">
+      <c r="AA16" s="32">
         <v>37.0</v>
       </c>
-      <c r="AB16" s="34">
+      <c r="AB16" s="33">
         <f t="shared" si="1"/>
         <v>469</v>
       </c>
-      <c r="AC16" s="35">
+      <c r="AC16" s="34">
         <f>SUM(AB16:AB17)</f>
         <v>841</v>
       </c>
       <c r="AD16" s="5"/>
-      <c r="AE16" s="36"/>
+      <c r="AE16" s="35"/>
     </row>
     <row r="17">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40">
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39">
         <v>31.0</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40">
+      <c r="E17" s="39"/>
+      <c r="F17" s="39">
         <v>32.0</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="39">
         <v>26.0</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="39">
         <v>32.0</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="39">
         <v>34.0</v>
       </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40">
+      <c r="J17" s="39"/>
+      <c r="K17" s="39">
         <v>31.0</v>
       </c>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40">
+      <c r="L17" s="39"/>
+      <c r="M17" s="39">
         <v>25.0</v>
       </c>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40">
+      <c r="N17" s="39"/>
+      <c r="O17" s="39">
         <v>35.0</v>
       </c>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40">
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39">
         <v>23.0</v>
       </c>
-      <c r="T17" s="42">
+      <c r="T17" s="40">
         <v>39.0</v>
       </c>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="41">
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39">
         <v>34.0</v>
       </c>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="41">
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39">
         <v>30.0</v>
       </c>
-      <c r="Z17" s="44">
+      <c r="Z17" s="42">
         <v>29.0</v>
       </c>
-      <c r="AA17" s="44">
+      <c r="AA17" s="42">
         <v>33.0</v>
       </c>
-      <c r="AB17" s="34">
+      <c r="AB17" s="33">
         <f t="shared" si="1"/>
         <v>372</v>
       </c>
       <c r="AC17" s="6"/>
       <c r="AD17" s="8"/>
-      <c r="AE17" s="36"/>
+      <c r="AE17" s="35"/>
     </row>
     <row r="18">
       <c r="A18" s="28" t="s">
@@ -2142,90 +2118,90 @@
       <c r="S18" s="31">
         <v>28.0</v>
       </c>
-      <c r="T18" s="32">
+      <c r="T18" s="31">
         <v>30.0</v>
       </c>
-      <c r="U18" s="32">
+      <c r="U18" s="31">
         <v>30.0</v>
       </c>
       <c r="V18" s="31"/>
-      <c r="W18" s="32">
+      <c r="W18" s="31">
         <v>33.0</v>
       </c>
       <c r="X18" s="31"/>
-      <c r="Y18" s="32">
+      <c r="Y18" s="31">
         <v>31.0</v>
       </c>
-      <c r="Z18" s="33">
+      <c r="Z18" s="32">
         <v>36.0</v>
       </c>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="34">
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="33">
         <f t="shared" si="1"/>
         <v>410</v>
       </c>
-      <c r="AC18" s="35">
+      <c r="AC18" s="34">
         <f>SUM(AB18:AB19)</f>
         <v>499</v>
       </c>
       <c r="AD18" s="5"/>
-      <c r="AE18" s="36"/>
+      <c r="AE18" s="35"/>
     </row>
     <row r="19">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40">
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39">
         <v>28.0</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40">
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39">
         <v>33.0</v>
       </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="41">
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39">
         <v>28.0</v>
       </c>
-      <c r="Z19" s="44">
+      <c r="Z19" s="42">
         <v>24.0</v>
       </c>
-      <c r="AA19" s="44">
+      <c r="AA19" s="42">
         <v>35.0</v>
       </c>
-      <c r="AB19" s="34">
+      <c r="AB19" s="33">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="AC19" s="6"/>
       <c r="AD19" s="8"/>
-      <c r="AE19" s="36"/>
+      <c r="AE19" s="35"/>
     </row>
     <row r="20">
       <c r="A20" s="28" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="29"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="31">
         <v>32.0</v>
       </c>
@@ -2261,118 +2237,118 @@
       <c r="S20" s="31">
         <v>28.0</v>
       </c>
-      <c r="T20" s="32">
+      <c r="T20" s="31">
         <v>31.0</v>
       </c>
-      <c r="U20" s="32">
+      <c r="U20" s="31">
         <v>32.0</v>
       </c>
-      <c r="V20" s="32">
+      <c r="V20" s="31">
         <v>36.0</v>
       </c>
-      <c r="W20" s="32">
+      <c r="W20" s="31">
         <v>31.0</v>
       </c>
-      <c r="X20" s="32">
+      <c r="X20" s="31">
         <v>29.0</v>
       </c>
-      <c r="Y20" s="32">
+      <c r="Y20" s="31">
         <v>32.0</v>
       </c>
-      <c r="Z20" s="33">
+      <c r="Z20" s="32">
         <v>28.0</v>
       </c>
-      <c r="AA20" s="33">
+      <c r="AA20" s="32">
         <v>36.0</v>
       </c>
-      <c r="AB20" s="34">
+      <c r="AB20" s="33">
         <f t="shared" si="1"/>
         <v>531</v>
       </c>
-      <c r="AC20" s="35">
+      <c r="AC20" s="34">
         <f>SUM(AB20:AB21)</f>
         <v>1022</v>
       </c>
       <c r="AD20" s="5"/>
-      <c r="AE20" s="36"/>
+      <c r="AE20" s="35"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52">
+      <c r="B21" s="37"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48">
         <v>36.0</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="39">
         <v>39.0</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="39">
         <v>33.0</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="39">
         <v>29.0</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21" s="39">
         <v>32.0</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="39">
         <v>31.0</v>
       </c>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40">
+      <c r="J21" s="39"/>
+      <c r="K21" s="39">
         <v>42.0</v>
       </c>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40">
+      <c r="L21" s="39"/>
+      <c r="M21" s="39">
         <v>31.0</v>
       </c>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40">
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39">
         <v>28.0</v>
       </c>
-      <c r="R21" s="40">
+      <c r="R21" s="39">
         <v>26.0</v>
       </c>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="41">
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39">
         <v>30.0</v>
       </c>
-      <c r="V21" s="41">
+      <c r="V21" s="39">
         <v>30.0</v>
       </c>
-      <c r="W21" s="41">
+      <c r="W21" s="39">
         <v>36.0</v>
       </c>
-      <c r="X21" s="41">
+      <c r="X21" s="39">
         <v>33.0</v>
       </c>
-      <c r="Y21" s="41">
+      <c r="Y21" s="39">
         <v>35.0</v>
       </c>
-      <c r="Z21" s="44">
+      <c r="Z21" s="42">
         <v>38.0</v>
       </c>
-      <c r="AA21" s="44">
+      <c r="AA21" s="42">
         <v>32.0</v>
       </c>
-      <c r="AB21" s="34">
+      <c r="AB21" s="33">
         <f t="shared" si="1"/>
         <v>491</v>
       </c>
       <c r="AC21" s="6"/>
       <c r="AD21" s="8"/>
-      <c r="AE21" s="36"/>
+      <c r="AE21" s="35"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="54"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="21"/>
       <c r="D22" s="31">
         <v>33.0</v>
@@ -2407,81 +2383,81 @@
       <c r="T22" s="31"/>
       <c r="U22" s="31"/>
       <c r="V22" s="31"/>
-      <c r="W22" s="32">
+      <c r="W22" s="31">
         <v>32.0</v>
       </c>
-      <c r="X22" s="32">
+      <c r="X22" s="31">
         <v>32.0</v>
       </c>
       <c r="Y22" s="31"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="33">
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32">
         <v>34.0</v>
       </c>
-      <c r="AB22" s="34">
+      <c r="AB22" s="33">
         <f t="shared" si="1"/>
         <v>277</v>
       </c>
-      <c r="AC22" s="35">
+      <c r="AC22" s="34">
         <f>SUM(AB22:AB23)</f>
         <v>481</v>
       </c>
       <c r="AD22" s="5"/>
-      <c r="AE22" s="36"/>
+      <c r="AE22" s="35"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="51" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="40">
+      <c r="C23" s="52"/>
+      <c r="D23" s="39">
         <v>25.0</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40">
+      <c r="E23" s="39"/>
+      <c r="F23" s="39">
         <v>30.0</v>
       </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40">
+      <c r="G23" s="39"/>
+      <c r="H23" s="39">
         <v>28.0</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="39">
         <v>27.0</v>
       </c>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40">
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39">
         <v>34.0</v>
       </c>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="41">
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39">
         <v>26.0</v>
       </c>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="41">
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39">
         <v>34.0</v>
       </c>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="44">
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42">
         <v>37.0</v>
       </c>
-      <c r="AB23" s="34">
+      <c r="AB23" s="33">
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
       <c r="AC23" s="6"/>
       <c r="AD23" s="8"/>
-      <c r="AE23" s="36"/>
+      <c r="AE23" s="35"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="28" t="s">
@@ -2508,105 +2484,105 @@
       </c>
       <c r="O24" s="31"/>
       <c r="P24" s="31"/>
-      <c r="Q24" s="57">
+      <c r="Q24" s="44">
         <v>38.0</v>
       </c>
       <c r="R24" s="31"/>
       <c r="S24" s="31"/>
-      <c r="T24" s="32">
+      <c r="T24" s="31">
         <v>31.0</v>
       </c>
-      <c r="U24" s="32">
+      <c r="U24" s="31">
         <v>33.0</v>
       </c>
       <c r="V24" s="31"/>
-      <c r="W24" s="32">
+      <c r="W24" s="31">
         <v>31.0</v>
       </c>
       <c r="X24" s="31"/>
       <c r="Y24" s="31"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="58">
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="53">
         <v>39.0</v>
       </c>
-      <c r="AB24" s="34">
+      <c r="AB24" s="33">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
-      <c r="AC24" s="35">
+      <c r="AC24" s="34">
         <f>SUM(AB24:AB25)</f>
         <v>635</v>
       </c>
       <c r="AD24" s="5"/>
-      <c r="AE24" s="36"/>
+      <c r="AE24" s="35"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40">
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39">
         <v>36.0</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40">
+      <c r="E25" s="39"/>
+      <c r="F25" s="39">
         <v>33.0</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G25" s="39">
         <v>33.0</v>
       </c>
-      <c r="H25" s="40">
+      <c r="H25" s="39">
         <v>34.0</v>
       </c>
-      <c r="I25" s="40">
+      <c r="I25" s="39">
         <v>26.0</v>
       </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40">
+      <c r="J25" s="39"/>
+      <c r="K25" s="39">
         <v>31.0</v>
       </c>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40">
+      <c r="L25" s="39"/>
+      <c r="M25" s="39">
         <v>28.0</v>
       </c>
-      <c r="N25" s="40">
+      <c r="N25" s="39">
         <v>27.0</v>
       </c>
-      <c r="O25" s="40">
+      <c r="O25" s="39">
         <v>32.0</v>
       </c>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="41">
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39">
         <v>26.0</v>
       </c>
-      <c r="U25" s="41">
+      <c r="U25" s="39">
         <v>35.0</v>
       </c>
-      <c r="V25" s="41">
+      <c r="V25" s="39">
         <v>33.0</v>
       </c>
-      <c r="W25" s="41">
+      <c r="W25" s="39">
         <v>30.0</v>
       </c>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="44">
+      <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="42">
         <v>26.0</v>
       </c>
-      <c r="AA25" s="44">
+      <c r="AA25" s="42">
         <v>36.0</v>
       </c>
-      <c r="AB25" s="34">
+      <c r="AB25" s="33">
         <f t="shared" si="1"/>
         <v>404</v>
       </c>
       <c r="AC25" s="6"/>
       <c r="AD25" s="8"/>
-      <c r="AE25" s="36"/>
+      <c r="AE25" s="35"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="28" t="s">
@@ -2648,112 +2624,112 @@
       <c r="Q26" s="31">
         <v>34.0</v>
       </c>
-      <c r="R26" s="57">
+      <c r="R26" s="44">
         <v>37.0</v>
       </c>
       <c r="S26" s="31">
         <v>30.0</v>
       </c>
-      <c r="T26" s="32">
+      <c r="T26" s="31">
         <v>32.0</v>
       </c>
-      <c r="U26" s="32">
+      <c r="U26" s="31">
         <v>22.0</v>
       </c>
-      <c r="V26" s="32">
+      <c r="V26" s="31">
         <v>31.0</v>
       </c>
-      <c r="W26" s="32">
+      <c r="W26" s="31">
         <v>30.0</v>
       </c>
-      <c r="X26" s="32">
+      <c r="X26" s="31">
         <v>35.0</v>
       </c>
       <c r="Y26" s="31"/>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="33">
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32">
         <v>35.0</v>
       </c>
-      <c r="AB26" s="34">
+      <c r="AB26" s="33">
         <f t="shared" si="1"/>
         <v>545</v>
       </c>
-      <c r="AC26" s="35">
+      <c r="AC26" s="34">
         <f>SUM(AB26:AB27)</f>
         <v>959</v>
       </c>
       <c r="AD26" s="5"/>
-      <c r="AE26" s="36"/>
+      <c r="AE26" s="35"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="40">
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39">
         <v>42.0</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40">
+      <c r="E27" s="39"/>
+      <c r="F27" s="39">
         <v>29.0</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27" s="39">
         <v>40.0</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="39">
         <v>28.0</v>
       </c>
-      <c r="I27" s="40">
+      <c r="I27" s="39">
         <v>21.0</v>
       </c>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40">
+      <c r="J27" s="39"/>
+      <c r="K27" s="39">
         <v>39.0</v>
       </c>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40">
+      <c r="L27" s="39"/>
+      <c r="M27" s="39">
         <v>22.0</v>
       </c>
-      <c r="N27" s="40">
+      <c r="N27" s="39">
         <v>28.0</v>
       </c>
-      <c r="O27" s="40">
+      <c r="O27" s="39">
         <v>32.0</v>
       </c>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40">
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39">
         <v>29.0</v>
       </c>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="41">
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39">
         <v>20.0</v>
       </c>
-      <c r="U27" s="40"/>
-      <c r="V27" s="41">
+      <c r="U27" s="39"/>
+      <c r="V27" s="39">
         <v>24.0</v>
       </c>
-      <c r="W27" s="40"/>
-      <c r="X27" s="41">
+      <c r="W27" s="39"/>
+      <c r="X27" s="39">
         <v>35.0</v>
       </c>
-      <c r="Y27" s="41">
+      <c r="Y27" s="39">
         <v>25.0</v>
       </c>
-      <c r="Z27" s="44">
+      <c r="Z27" s="42">
         <v>29.0</v>
       </c>
-      <c r="AA27" s="44">
+      <c r="AA27" s="42">
         <v>33.0</v>
       </c>
-      <c r="AB27" s="34">
+      <c r="AB27" s="33">
         <f t="shared" si="1"/>
         <v>414</v>
       </c>
       <c r="AC27" s="6"/>
       <c r="AD27" s="8"/>
-      <c r="AE27" s="36"/>
+      <c r="AE27" s="35"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="28" t="s">
@@ -2787,7 +2763,7 @@
       <c r="M28" s="31">
         <v>33.0</v>
       </c>
-      <c r="N28" s="57">
+      <c r="N28" s="44">
         <v>35.0</v>
       </c>
       <c r="O28" s="31">
@@ -2801,110 +2777,110 @@
       <c r="S28" s="31">
         <v>31.0</v>
       </c>
-      <c r="T28" s="32">
+      <c r="T28" s="31">
         <v>29.0</v>
       </c>
-      <c r="U28" s="32">
+      <c r="U28" s="31">
         <v>33.0</v>
       </c>
-      <c r="V28" s="32">
+      <c r="V28" s="31">
         <v>32.0</v>
       </c>
       <c r="W28" s="31"/>
-      <c r="X28" s="46">
+      <c r="X28" s="44">
         <v>35.0</v>
       </c>
-      <c r="Y28" s="32">
+      <c r="Y28" s="31">
         <v>35.0</v>
       </c>
-      <c r="Z28" s="47"/>
-      <c r="AA28" s="47"/>
-      <c r="AB28" s="34">
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="33">
         <f t="shared" si="1"/>
         <v>545</v>
       </c>
-      <c r="AC28" s="35">
+      <c r="AC28" s="34">
         <f>SUM(AB28:AB29)</f>
         <v>1124</v>
       </c>
       <c r="AD28" s="5"/>
-      <c r="AE28" s="36"/>
+      <c r="AE28" s="35"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="40">
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39">
         <v>24.0</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="39">
         <v>30.0</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="39">
         <v>32.0</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G29" s="39">
         <v>37.0</v>
       </c>
-      <c r="H29" s="40">
+      <c r="H29" s="39">
         <v>36.0</v>
       </c>
-      <c r="I29" s="40">
+      <c r="I29" s="39">
         <v>36.0</v>
       </c>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40">
+      <c r="J29" s="39"/>
+      <c r="K29" s="39">
         <v>38.0</v>
       </c>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59">
+      <c r="L29" s="40"/>
+      <c r="M29" s="40">
         <v>39.0</v>
       </c>
-      <c r="N29" s="40">
+      <c r="N29" s="39">
         <v>33.0</v>
       </c>
-      <c r="O29" s="40">
+      <c r="O29" s="39">
         <v>33.0</v>
       </c>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40">
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39">
         <v>34.0</v>
       </c>
-      <c r="R29" s="40">
+      <c r="R29" s="39">
         <v>32.0</v>
       </c>
-      <c r="S29" s="59">
+      <c r="S29" s="40">
         <v>38.0</v>
       </c>
-      <c r="T29" s="41">
+      <c r="T29" s="39">
         <v>34.0</v>
       </c>
-      <c r="U29" s="41">
+      <c r="U29" s="39">
         <v>36.0</v>
       </c>
-      <c r="V29" s="41">
+      <c r="V29" s="39">
         <v>31.0</v>
       </c>
-      <c r="W29" s="42">
+      <c r="W29" s="40">
         <v>36.0</v>
       </c>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="44">
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="42">
         <v>33.0</v>
       </c>
-      <c r="AA29" s="44">
+      <c r="AA29" s="42">
         <v>38.0</v>
       </c>
-      <c r="AB29" s="34">
+      <c r="AB29" s="33">
         <f t="shared" si="1"/>
         <v>579</v>
       </c>
       <c r="AC29" s="6"/>
       <c r="AD29" s="8"/>
-      <c r="AE29" s="36"/>
+      <c r="AE29" s="35"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="28" t="s">
@@ -2936,107 +2912,107 @@
       <c r="Q30" s="31"/>
       <c r="R30" s="31"/>
       <c r="S30" s="31"/>
-      <c r="T30" s="32">
+      <c r="T30" s="31">
         <v>24.0</v>
       </c>
-      <c r="U30" s="32">
+      <c r="U30" s="31">
         <v>35.0</v>
       </c>
-      <c r="V30" s="32">
+      <c r="V30" s="31">
         <v>33.0</v>
       </c>
       <c r="W30" s="31"/>
       <c r="X30" s="31"/>
       <c r="Y30" s="31"/>
-      <c r="Z30" s="33">
+      <c r="Z30" s="32">
         <v>31.0</v>
       </c>
-      <c r="AA30" s="33">
+      <c r="AA30" s="32">
         <v>37.0</v>
       </c>
-      <c r="AB30" s="34">
+      <c r="AB30" s="33">
         <f t="shared" si="1"/>
         <v>214</v>
       </c>
-      <c r="AC30" s="35">
+      <c r="AC30" s="34">
         <f>SUM(AB30:AB31)</f>
         <v>648</v>
       </c>
       <c r="AD30" s="5"/>
-      <c r="AE30" s="36"/>
+      <c r="AE30" s="35"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="40">
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39">
         <v>33.0</v>
       </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40">
+      <c r="E31" s="39"/>
+      <c r="F31" s="39">
         <v>34.0</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="39">
         <v>30.0</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="39">
         <v>29.0</v>
       </c>
-      <c r="I31" s="40">
+      <c r="I31" s="39">
         <v>39.0</v>
       </c>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40">
+      <c r="J31" s="39"/>
+      <c r="K31" s="39">
         <v>31.0</v>
       </c>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40">
+      <c r="L31" s="39"/>
+      <c r="M31" s="39">
         <v>33.0</v>
       </c>
-      <c r="N31" s="40">
+      <c r="N31" s="39">
         <v>29.0</v>
       </c>
-      <c r="O31" s="40">
+      <c r="O31" s="39">
         <v>29.0</v>
       </c>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40">
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39">
         <v>28.0</v>
       </c>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40">
+      <c r="R31" s="39"/>
+      <c r="S31" s="39">
         <v>30.0</v>
       </c>
-      <c r="T31" s="40"/>
-      <c r="U31" s="41">
+      <c r="T31" s="39"/>
+      <c r="U31" s="39">
         <v>27.0</v>
       </c>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
-      <c r="X31" s="41">
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39">
         <v>29.0</v>
       </c>
-      <c r="Y31" s="41">
+      <c r="Y31" s="39">
         <v>33.0</v>
       </c>
-      <c r="Z31" s="60">
+      <c r="Z31" s="55">
         <v>33.0</v>
       </c>
-      <c r="AA31" s="60">
+      <c r="AA31" s="55">
         <v>33.0</v>
       </c>
-      <c r="AB31" s="61">
+      <c r="AB31" s="56">
         <f t="shared" si="1"/>
         <v>434</v>
       </c>
       <c r="AC31" s="6"/>
       <c r="AD31" s="8"/>
-      <c r="AE31" s="36"/>
+      <c r="AE31" s="35"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="62"/>
+      <c r="A32" s="57"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -3067,27 +3043,27 @@
       <c r="AE32" s="1"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="64"/>
-      <c r="C33" s="65" t="s">
+      <c r="B33" s="59"/>
+      <c r="C33" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="66"/>
-      <c r="E33" s="64"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="59"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="67" t="s">
+      <c r="K33" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="69"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="64"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -3106,9 +3082,9 @@
       <c r="AE33" s="1"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -3139,16 +3115,16 @@
       <c r="AE34" s="1"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="72"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="67"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3156,86 +3132,86 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="P35" s="70" t="s">
+      <c r="P35" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="72"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="67"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
-      <c r="X35" s="73"/>
+      <c r="X35" s="68"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="74" t="s">
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="69" t="s">
         <v>54</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="75">
+      <c r="E36" s="70">
         <v>80.0</v>
       </c>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="74" t="s">
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="O36" s="36"/>
-      <c r="P36" s="75">
+      <c r="O36" s="35"/>
+      <c r="P36" s="70">
         <v>50.0</v>
       </c>
-      <c r="Q36" s="66"/>
-      <c r="R36" s="66"/>
-      <c r="S36" s="64"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="59"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
-      <c r="X36" s="76"/>
+      <c r="X36" s="71"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="74" t="s">
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="69" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="75">
+      <c r="E37" s="70">
         <v>50.0</v>
       </c>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="74" t="s">
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="O37" s="36"/>
-      <c r="P37" s="75">
+      <c r="O37" s="35"/>
+      <c r="P37" s="70">
         <v>30.0</v>
       </c>
-      <c r="Q37" s="66"/>
-      <c r="R37" s="66"/>
-      <c r="S37" s="64"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="59"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
@@ -3250,18 +3226,18 @@
       <c r="AE37" s="1"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="74" t="s">
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="69" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="75">
+      <c r="E38" s="70">
         <v>40.0</v>
       </c>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="64"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="59"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -3269,7 +3245,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="P38" s="77"/>
+      <c r="P38" s="72"/>
       <c r="Q38" s="23"/>
       <c r="R38" s="23"/>
       <c r="S38" s="23"/>
@@ -3287,14 +3263,14 @@
       <c r="AE38" s="1"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="D39" s="78"/>
-      <c r="E39" s="77"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="72"/>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="78"/>
+      <c r="O39" s="73"/>
       <c r="S39" s="1"/>
       <c r="W39" s="1"/>
     </row>
@@ -4365,10 +4341,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="75" t="s">
         <v>57</v>
       </c>
       <c r="E1" s="4"/>
@@ -4382,23 +4358,23 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="5"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
     </row>
     <row r="2">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -4411,100 +4387,100 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="8"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
     </row>
     <row r="3" ht="79.5" customHeight="1">
-      <c r="A3" s="81"/>
-      <c r="B3" s="82">
+      <c r="A3" s="76"/>
+      <c r="B3" s="77">
         <v>45575.0</v>
       </c>
-      <c r="C3" s="82">
+      <c r="C3" s="77">
         <v>45582.0</v>
       </c>
-      <c r="D3" s="83">
+      <c r="D3" s="78">
         <v>45589.0</v>
       </c>
-      <c r="E3" s="83">
+      <c r="E3" s="78">
         <v>45596.0</v>
       </c>
-      <c r="F3" s="83">
+      <c r="F3" s="78">
         <v>45603.0</v>
       </c>
-      <c r="G3" s="83">
+      <c r="G3" s="78">
         <v>45610.0</v>
       </c>
-      <c r="H3" s="83">
+      <c r="H3" s="78">
         <v>45617.0</v>
       </c>
-      <c r="I3" s="83">
+      <c r="I3" s="78">
         <v>45624.0</v>
       </c>
-      <c r="J3" s="83">
+      <c r="J3" s="78">
         <v>45631.0</v>
       </c>
-      <c r="K3" s="83">
+      <c r="K3" s="78">
         <v>45638.0</v>
       </c>
-      <c r="L3" s="83">
+      <c r="L3" s="78">
         <v>45645.0</v>
       </c>
-      <c r="M3" s="83">
+      <c r="M3" s="78">
         <v>45659.0</v>
       </c>
-      <c r="N3" s="83">
+      <c r="N3" s="78">
         <v>45666.0</v>
       </c>
-      <c r="O3" s="83">
+      <c r="O3" s="78">
         <v>45673.0</v>
       </c>
-      <c r="P3" s="82">
+      <c r="P3" s="77">
         <v>45680.0</v>
       </c>
-      <c r="Q3" s="82">
+      <c r="Q3" s="77">
         <v>45687.0</v>
       </c>
-      <c r="R3" s="82">
+      <c r="R3" s="77">
         <v>45694.0</v>
       </c>
-      <c r="S3" s="82">
+      <c r="S3" s="77">
         <v>45701.0</v>
       </c>
-      <c r="T3" s="82">
+      <c r="T3" s="77">
         <v>45708.0</v>
       </c>
-      <c r="U3" s="82">
+      <c r="U3" s="77">
         <v>45715.0</v>
       </c>
-      <c r="V3" s="82">
+      <c r="V3" s="77">
         <v>45722.0</v>
       </c>
-      <c r="W3" s="82">
+      <c r="W3" s="77">
         <v>45729.0</v>
       </c>
-      <c r="X3" s="82">
+      <c r="X3" s="77">
         <v>45736.0</v>
       </c>
-      <c r="Y3" s="82">
+      <c r="Y3" s="77">
         <v>45743.0</v>
       </c>
-      <c r="Z3" s="84" t="s">
+      <c r="Z3" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="AA3" s="85"/>
+      <c r="AA3" s="80"/>
     </row>
     <row r="4">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="81" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
@@ -4579,974 +4555,974 @@
       <c r="Y4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="Z4" s="87" t="s">
+      <c r="Z4" s="82" t="s">
         <v>58</v>
       </c>
       <c r="AA4" s="27"/>
     </row>
     <row r="5">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="89">
+      <c r="B5" s="84">
         <v>30.0</v>
       </c>
-      <c r="C5" s="89">
+      <c r="C5" s="84">
         <v>37.0</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="89">
+      <c r="D5" s="85"/>
+      <c r="E5" s="84">
         <v>31.0</v>
       </c>
-      <c r="F5" s="89">
+      <c r="F5" s="84">
         <v>33.0</v>
       </c>
-      <c r="G5" s="89">
+      <c r="G5" s="84">
         <v>27.0</v>
       </c>
-      <c r="H5" s="89">
+      <c r="H5" s="84">
         <v>27.0</v>
       </c>
-      <c r="I5" s="89">
+      <c r="I5" s="84">
         <v>29.0</v>
       </c>
-      <c r="J5" s="89">
+      <c r="J5" s="84">
         <v>36.0</v>
       </c>
-      <c r="K5" s="90">
+      <c r="K5" s="85">
         <v>28.0</v>
       </c>
-      <c r="L5" s="91">
+      <c r="L5" s="86">
         <v>38.0</v>
       </c>
-      <c r="M5" s="90">
+      <c r="M5" s="85">
         <v>38.0</v>
       </c>
-      <c r="N5" s="90"/>
-      <c r="O5" s="91">
+      <c r="N5" s="85"/>
+      <c r="O5" s="86">
         <v>36.0</v>
       </c>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92">
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85">
         <v>27.0</v>
       </c>
-      <c r="R5" s="93">
+      <c r="R5" s="86">
         <v>35.0</v>
       </c>
-      <c r="S5" s="92">
+      <c r="S5" s="85">
         <v>33.0</v>
       </c>
-      <c r="T5" s="90"/>
-      <c r="U5" s="93">
+      <c r="T5" s="85"/>
+      <c r="U5" s="86">
         <v>37.0</v>
       </c>
-      <c r="V5" s="90"/>
-      <c r="W5" s="92">
+      <c r="V5" s="85"/>
+      <c r="W5" s="85">
         <v>26.0</v>
       </c>
-      <c r="X5" s="92">
+      <c r="X5" s="85">
         <v>34.0</v>
       </c>
-      <c r="Y5" s="92">
+      <c r="Y5" s="85">
         <v>30.0</v>
       </c>
-      <c r="Z5" s="94">
+      <c r="Z5" s="87">
         <f t="shared" ref="Z5:Z19" si="1">SUM(B5:W5)</f>
         <v>548</v>
       </c>
-      <c r="AA5" s="36"/>
+      <c r="AA5" s="35"/>
     </row>
     <row r="6">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="90">
+      <c r="B6" s="85">
         <v>36.0</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90">
+      <c r="C6" s="85"/>
+      <c r="D6" s="85">
         <v>32.0</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90">
+      <c r="E6" s="85"/>
+      <c r="F6" s="85">
         <v>39.0</v>
       </c>
-      <c r="G6" s="90">
+      <c r="G6" s="85">
         <v>35.0</v>
       </c>
-      <c r="H6" s="90">
+      <c r="H6" s="85">
         <v>27.0</v>
       </c>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90">
+      <c r="I6" s="85"/>
+      <c r="J6" s="85">
         <v>33.0</v>
       </c>
-      <c r="K6" s="90">
+      <c r="K6" s="85">
         <v>38.0</v>
       </c>
-      <c r="L6" s="90">
+      <c r="L6" s="85">
         <v>35.0</v>
       </c>
-      <c r="M6" s="90">
+      <c r="M6" s="85">
         <v>32.0</v>
       </c>
-      <c r="N6" s="91">
+      <c r="N6" s="86">
         <v>33.0</v>
       </c>
-      <c r="O6" s="90">
+      <c r="O6" s="85">
         <v>34.0</v>
       </c>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92">
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85">
         <v>30.0</v>
       </c>
-      <c r="R6" s="92">
+      <c r="R6" s="85">
         <v>25.0</v>
       </c>
-      <c r="S6" s="92">
+      <c r="S6" s="85">
         <v>31.0</v>
       </c>
-      <c r="T6" s="93">
+      <c r="T6" s="86">
         <v>34.0</v>
       </c>
-      <c r="U6" s="92">
+      <c r="U6" s="85">
         <v>32.0</v>
       </c>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="92">
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85">
         <v>34.0</v>
       </c>
-      <c r="Y6" s="93">
+      <c r="Y6" s="86">
         <v>37.0</v>
       </c>
-      <c r="Z6" s="94">
+      <c r="Z6" s="87">
         <f t="shared" si="1"/>
         <v>526</v>
       </c>
-      <c r="AA6" s="36"/>
+      <c r="AA6" s="35"/>
     </row>
     <row r="7">
       <c r="A7" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="89">
+        <v>39</v>
+      </c>
+      <c r="B7" s="84">
         <v>33.0</v>
       </c>
-      <c r="C7" s="89">
+      <c r="C7" s="84">
         <v>28.0</v>
       </c>
-      <c r="D7" s="89">
+      <c r="D7" s="84">
         <v>32.0</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="89">
+      <c r="E7" s="85"/>
+      <c r="F7" s="84">
         <v>33.0</v>
       </c>
-      <c r="G7" s="89">
+      <c r="G7" s="84">
         <v>34.0</v>
       </c>
-      <c r="H7" s="89">
+      <c r="H7" s="84">
         <v>26.0</v>
       </c>
-      <c r="I7" s="89">
+      <c r="I7" s="84">
         <v>29.0</v>
       </c>
-      <c r="J7" s="89">
+      <c r="J7" s="84">
         <v>28.0</v>
       </c>
-      <c r="K7" s="90">
+      <c r="K7" s="85">
         <v>29.0</v>
       </c>
-      <c r="L7" s="90">
+      <c r="L7" s="85">
         <v>27.0</v>
       </c>
-      <c r="M7" s="91">
+      <c r="M7" s="86">
         <v>38.0</v>
       </c>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90">
+      <c r="N7" s="85"/>
+      <c r="O7" s="85">
         <v>32.0</v>
       </c>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92">
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85">
         <v>24.0</v>
       </c>
-      <c r="R7" s="92">
+      <c r="R7" s="85">
         <v>28.0</v>
       </c>
-      <c r="S7" s="92">
+      <c r="S7" s="85">
         <v>30.0</v>
       </c>
-      <c r="T7" s="90"/>
-      <c r="U7" s="92">
+      <c r="T7" s="85"/>
+      <c r="U7" s="85">
         <v>27.0</v>
       </c>
-      <c r="V7" s="93">
+      <c r="V7" s="86">
         <v>35.0</v>
       </c>
-      <c r="W7" s="92">
+      <c r="W7" s="85">
         <v>28.0</v>
       </c>
-      <c r="X7" s="92">
+      <c r="X7" s="85">
         <v>25.0</v>
       </c>
-      <c r="Y7" s="92">
+      <c r="Y7" s="85">
         <v>35.0</v>
       </c>
-      <c r="Z7" s="94">
+      <c r="Z7" s="87">
         <f t="shared" si="1"/>
         <v>541</v>
       </c>
-      <c r="AA7" s="36"/>
+      <c r="AA7" s="35"/>
     </row>
     <row r="8">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="89">
+      <c r="B8" s="84">
         <v>37.0</v>
       </c>
-      <c r="C8" s="89">
+      <c r="C8" s="84">
         <v>35.0</v>
       </c>
-      <c r="D8" s="89">
+      <c r="D8" s="84">
         <v>32.0</v>
       </c>
-      <c r="E8" s="95">
+      <c r="E8" s="89">
         <v>31.0</v>
       </c>
-      <c r="F8" s="89">
+      <c r="F8" s="84">
         <v>31.0</v>
       </c>
-      <c r="G8" s="89">
+      <c r="G8" s="84">
         <v>33.0</v>
       </c>
-      <c r="H8" s="89">
+      <c r="H8" s="84">
         <v>36.0</v>
       </c>
-      <c r="I8" s="89">
+      <c r="I8" s="84">
         <v>33.0</v>
       </c>
-      <c r="J8" s="96">
+      <c r="J8" s="90">
         <v>36.0</v>
       </c>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90">
+      <c r="K8" s="85"/>
+      <c r="L8" s="85">
         <v>32.0</v>
       </c>
-      <c r="M8" s="90">
+      <c r="M8" s="85">
         <v>33.0</v>
       </c>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92">
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85">
         <v>22.0</v>
       </c>
-      <c r="R8" s="92">
+      <c r="R8" s="85">
         <v>34.0</v>
       </c>
-      <c r="S8" s="92"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="93">
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="86">
         <v>35.0</v>
       </c>
-      <c r="X8" s="92">
+      <c r="X8" s="85">
         <v>32.0</v>
       </c>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="94">
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="87">
         <f t="shared" si="1"/>
         <v>460</v>
       </c>
-      <c r="AA8" s="36"/>
+      <c r="AA8" s="35"/>
     </row>
     <row r="9">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="89">
+      <c r="B9" s="84">
         <v>30.0</v>
       </c>
-      <c r="C9" s="89">
+      <c r="C9" s="84">
         <v>33.0</v>
       </c>
-      <c r="D9" s="89">
+      <c r="D9" s="84">
         <v>30.0</v>
       </c>
-      <c r="E9" s="89">
+      <c r="E9" s="84">
         <v>26.0</v>
       </c>
-      <c r="F9" s="89">
+      <c r="F9" s="84">
         <v>28.0</v>
       </c>
-      <c r="G9" s="89">
+      <c r="G9" s="84">
         <v>26.0</v>
       </c>
-      <c r="H9" s="89">
+      <c r="H9" s="84">
         <v>20.0</v>
       </c>
-      <c r="I9" s="90"/>
-      <c r="J9" s="89">
+      <c r="I9" s="85"/>
+      <c r="J9" s="84">
         <v>34.0</v>
       </c>
-      <c r="K9" s="90">
+      <c r="K9" s="85">
         <v>26.0</v>
       </c>
-      <c r="L9" s="90">
+      <c r="L9" s="85">
         <v>26.0</v>
       </c>
-      <c r="M9" s="90">
+      <c r="M9" s="85">
         <v>24.0</v>
       </c>
-      <c r="N9" s="90">
+      <c r="N9" s="85">
         <v>28.0</v>
       </c>
-      <c r="O9" s="90">
+      <c r="O9" s="85">
         <v>28.0</v>
       </c>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92">
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85">
         <v>31.0</v>
       </c>
-      <c r="R9" s="92">
+      <c r="R9" s="85">
         <v>30.0</v>
       </c>
-      <c r="S9" s="92">
+      <c r="S9" s="85">
         <v>29.0</v>
       </c>
-      <c r="T9" s="92">
+      <c r="T9" s="85">
         <v>22.0</v>
       </c>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="92">
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85">
         <v>29.0</v>
       </c>
-      <c r="X9" s="92">
+      <c r="X9" s="85">
         <v>32.0</v>
       </c>
-      <c r="Y9" s="92">
+      <c r="Y9" s="85">
         <v>35.0</v>
       </c>
-      <c r="Z9" s="94">
+      <c r="Z9" s="87">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="AA9" s="36"/>
+      <c r="AA9" s="35"/>
     </row>
     <row r="10">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90">
+      <c r="B10" s="85"/>
+      <c r="C10" s="85">
         <v>31.0</v>
       </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90">
+      <c r="D10" s="85"/>
+      <c r="E10" s="85">
         <v>23.0</v>
       </c>
-      <c r="F10" s="90">
+      <c r="F10" s="85">
         <v>35.0</v>
       </c>
-      <c r="G10" s="90">
+      <c r="G10" s="85">
         <v>29.0</v>
       </c>
-      <c r="H10" s="90">
+      <c r="H10" s="85">
         <v>16.0</v>
       </c>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90">
+      <c r="I10" s="85"/>
+      <c r="J10" s="85">
         <v>29.0</v>
       </c>
-      <c r="K10" s="90">
+      <c r="K10" s="85">
         <v>21.0</v>
       </c>
-      <c r="L10" s="90">
+      <c r="L10" s="85">
         <v>24.0</v>
       </c>
-      <c r="M10" s="90">
+      <c r="M10" s="85">
         <v>28.0</v>
       </c>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90">
+      <c r="N10" s="85"/>
+      <c r="O10" s="85">
         <v>14.0</v>
       </c>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92">
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85">
         <v>22.0</v>
       </c>
-      <c r="R10" s="92">
+      <c r="R10" s="85">
         <v>20.0</v>
       </c>
-      <c r="S10" s="92">
+      <c r="S10" s="85">
         <v>26.0</v>
       </c>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="92">
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85">
         <v>30.0</v>
       </c>
-      <c r="W10" s="92">
+      <c r="W10" s="85">
         <v>28.0</v>
       </c>
-      <c r="X10" s="92">
+      <c r="X10" s="85">
         <v>26.0</v>
       </c>
-      <c r="Y10" s="92">
+      <c r="Y10" s="85">
         <v>30.0</v>
       </c>
-      <c r="Z10" s="94">
+      <c r="Z10" s="87">
         <f t="shared" si="1"/>
         <v>376</v>
       </c>
-      <c r="AA10" s="36"/>
+      <c r="AA10" s="35"/>
     </row>
     <row r="11">
-      <c r="A11" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="90">
+      <c r="A11" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="85">
         <v>41.0</v>
       </c>
-      <c r="C11" s="90">
+      <c r="C11" s="85">
         <v>31.0</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D11" s="85">
         <v>32.0</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E11" s="85">
         <v>29.0</v>
       </c>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90">
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85">
         <v>23.0</v>
       </c>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="94">
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="85"/>
+      <c r="Y11" s="85"/>
+      <c r="Z11" s="87">
         <f t="shared" si="1"/>
         <v>156</v>
       </c>
-      <c r="AA11" s="36"/>
+      <c r="AA11" s="35"/>
     </row>
     <row r="12">
-      <c r="A12" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="89">
+      <c r="A12" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="84">
         <v>42.0</v>
       </c>
-      <c r="C12" s="89">
+      <c r="C12" s="84">
         <v>31.0</v>
       </c>
-      <c r="D12" s="89">
+      <c r="D12" s="84">
         <v>32.0</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="84">
         <v>32.0</v>
       </c>
-      <c r="F12" s="89">
+      <c r="F12" s="84">
         <v>34.0</v>
       </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="89">
+      <c r="G12" s="85"/>
+      <c r="H12" s="84">
         <v>28.0</v>
       </c>
-      <c r="I12" s="89">
+      <c r="I12" s="84">
         <v>34.0</v>
       </c>
-      <c r="J12" s="89">
+      <c r="J12" s="84">
         <v>33.0</v>
       </c>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90">
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85">
         <v>30.0</v>
       </c>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92">
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85">
         <v>27.0</v>
       </c>
-      <c r="R12" s="92">
+      <c r="R12" s="85">
         <v>26.0</v>
       </c>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="92">
+      <c r="S12" s="85"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="85">
         <v>32.0</v>
       </c>
-      <c r="V12" s="92">
+      <c r="V12" s="85">
         <v>27.0</v>
       </c>
-      <c r="W12" s="92">
+      <c r="W12" s="85">
         <v>24.0</v>
       </c>
-      <c r="X12" s="92">
+      <c r="X12" s="85">
         <v>32.0</v>
       </c>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="94">
+      <c r="Y12" s="85"/>
+      <c r="Z12" s="87">
         <f t="shared" si="1"/>
         <v>432</v>
       </c>
-      <c r="AA12" s="36"/>
+      <c r="AA12" s="35"/>
     </row>
     <row r="13">
-      <c r="A13" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90">
+      <c r="A13" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="91"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85">
         <v>33.0</v>
       </c>
-      <c r="E13" s="90">
+      <c r="E13" s="85">
         <v>36.0</v>
       </c>
-      <c r="F13" s="90">
+      <c r="F13" s="85">
         <v>27.0</v>
       </c>
-      <c r="G13" s="90">
+      <c r="G13" s="85">
         <v>37.0</v>
       </c>
-      <c r="H13" s="90">
+      <c r="H13" s="85">
         <v>31.0</v>
       </c>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90">
+      <c r="I13" s="85"/>
+      <c r="J13" s="85">
         <v>34.0</v>
       </c>
-      <c r="K13" s="91">
+      <c r="K13" s="86">
         <v>40.0</v>
       </c>
-      <c r="L13" s="90">
+      <c r="L13" s="85">
         <v>34.0</v>
       </c>
-      <c r="M13" s="90">
+      <c r="M13" s="85">
         <v>31.0</v>
       </c>
-      <c r="N13" s="90">
+      <c r="N13" s="85">
         <v>29.0</v>
       </c>
-      <c r="O13" s="90">
+      <c r="O13" s="85">
         <v>34.0</v>
       </c>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93">
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86">
         <v>38.0</v>
       </c>
-      <c r="R13" s="92">
+      <c r="R13" s="85">
         <v>28.0</v>
       </c>
-      <c r="S13" s="92">
+      <c r="S13" s="85">
         <v>32.0</v>
       </c>
-      <c r="T13" s="90"/>
-      <c r="U13" s="92">
+      <c r="T13" s="85"/>
+      <c r="U13" s="85">
         <v>34.0</v>
       </c>
-      <c r="V13" s="90"/>
-      <c r="W13" s="92">
+      <c r="V13" s="85"/>
+      <c r="W13" s="85">
         <v>28.0</v>
       </c>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="94">
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="87">
         <f t="shared" si="1"/>
         <v>526</v>
       </c>
-      <c r="AA13" s="36"/>
+      <c r="AA13" s="35"/>
     </row>
     <row r="14">
-      <c r="A14" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90">
+      <c r="A14" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85">
         <v>22.0</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90">
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85">
         <v>36.0</v>
       </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90">
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85">
         <v>34.0</v>
       </c>
-      <c r="K14" s="90">
+      <c r="K14" s="85">
         <v>27.0</v>
       </c>
-      <c r="L14" s="90">
+      <c r="L14" s="85">
         <v>35.0</v>
       </c>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90">
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85">
         <v>32.0</v>
       </c>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="92">
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85">
         <v>31.0</v>
       </c>
-      <c r="S14" s="92">
+      <c r="S14" s="85">
         <v>29.0</v>
       </c>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="94">
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="87">
         <f t="shared" si="1"/>
         <v>246</v>
       </c>
-      <c r="AA14" s="36"/>
+      <c r="AA14" s="35"/>
     </row>
     <row r="15">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90">
+      <c r="B15" s="85"/>
+      <c r="C15" s="85">
         <v>43.0</v>
       </c>
-      <c r="D15" s="90">
+      <c r="D15" s="85">
         <v>25.0</v>
       </c>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90">
+      <c r="E15" s="85"/>
+      <c r="F15" s="85">
         <v>32.0</v>
       </c>
-      <c r="G15" s="90">
+      <c r="G15" s="85">
         <v>30.0</v>
       </c>
-      <c r="H15" s="90">
+      <c r="H15" s="85">
         <v>34.0</v>
       </c>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90">
+      <c r="I15" s="85"/>
+      <c r="J15" s="85">
         <v>34.0</v>
       </c>
-      <c r="K15" s="90">
+      <c r="K15" s="85">
         <v>26.0</v>
       </c>
-      <c r="L15" s="90">
+      <c r="L15" s="85">
         <v>37.0</v>
       </c>
-      <c r="M15" s="90">
+      <c r="M15" s="85">
         <v>32.0</v>
       </c>
-      <c r="N15" s="90">
+      <c r="N15" s="85">
         <v>27.0</v>
       </c>
-      <c r="O15" s="90"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92">
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85">
         <v>27.0</v>
       </c>
-      <c r="R15" s="92">
+      <c r="R15" s="85">
         <v>28.0</v>
       </c>
-      <c r="S15" s="90"/>
-      <c r="T15" s="92">
+      <c r="S15" s="85"/>
+      <c r="T15" s="85">
         <v>25.0</v>
       </c>
-      <c r="U15" s="92">
+      <c r="U15" s="85">
         <v>23.0</v>
       </c>
-      <c r="V15" s="90"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="92">
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85">
         <v>35.0</v>
       </c>
-      <c r="Y15" s="92">
+      <c r="Y15" s="85">
         <v>30.0</v>
       </c>
-      <c r="Z15" s="94">
+      <c r="Z15" s="87">
         <f t="shared" si="1"/>
         <v>423</v>
       </c>
-      <c r="AA15" s="36"/>
+      <c r="AA15" s="35"/>
     </row>
     <row r="16">
-      <c r="A16" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90">
+      <c r="A16" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85">
         <v>29.0</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D16" s="85">
         <v>28.0</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90">
+      <c r="E16" s="85"/>
+      <c r="F16" s="85">
         <v>23.0</v>
       </c>
-      <c r="G16" s="90">
+      <c r="G16" s="85">
         <v>30.0</v>
       </c>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90">
+      <c r="H16" s="85"/>
+      <c r="I16" s="85">
         <v>27.0</v>
       </c>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90">
+      <c r="J16" s="85"/>
+      <c r="K16" s="85">
         <v>29.0</v>
       </c>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90">
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85">
         <v>35.0</v>
       </c>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="92">
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85">
         <v>33.0</v>
       </c>
-      <c r="R16" s="92">
+      <c r="R16" s="85">
         <v>27.0</v>
       </c>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="92">
+      <c r="S16" s="85"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85">
         <v>27.0</v>
       </c>
-      <c r="V16" s="92">
+      <c r="V16" s="85">
         <v>27.0</v>
       </c>
-      <c r="W16" s="92">
+      <c r="W16" s="85">
         <v>30.0</v>
       </c>
-      <c r="X16" s="93">
+      <c r="X16" s="86">
         <v>40.0</v>
       </c>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="94">
+      <c r="Y16" s="85"/>
+      <c r="Z16" s="87">
         <f t="shared" si="1"/>
         <v>345</v>
       </c>
-      <c r="AA16" s="36"/>
+      <c r="AA16" s="35"/>
     </row>
     <row r="17">
-      <c r="A17" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90">
+      <c r="A17" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85">
         <v>26.0</v>
       </c>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="94">
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="85"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="85"/>
+      <c r="Y17" s="85"/>
+      <c r="Z17" s="87">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="AA17" s="36"/>
+      <c r="AA17" s="35"/>
     </row>
     <row r="18">
-      <c r="A18" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90">
+      <c r="A18" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85">
         <v>27.0</v>
       </c>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="94">
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="85"/>
+      <c r="W18" s="85"/>
+      <c r="X18" s="85"/>
+      <c r="Y18" s="85"/>
+      <c r="Z18" s="87">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="AA18" s="36"/>
+      <c r="AA18" s="35"/>
     </row>
     <row r="19">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90">
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85">
         <v>41.0</v>
       </c>
-      <c r="E19" s="90">
+      <c r="E19" s="85">
         <v>37.0</v>
       </c>
-      <c r="F19" s="90">
+      <c r="F19" s="85">
         <v>38.0</v>
       </c>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="92">
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85">
         <v>32.0</v>
       </c>
-      <c r="R19" s="92">
+      <c r="R19" s="85">
         <v>24.0</v>
       </c>
-      <c r="S19" s="93">
+      <c r="S19" s="86">
         <v>40.0</v>
       </c>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="92">
+      <c r="T19" s="85"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="85"/>
+      <c r="X19" s="85">
         <v>34.0</v>
       </c>
-      <c r="Y19" s="92">
+      <c r="Y19" s="85">
         <v>30.0</v>
       </c>
-      <c r="Z19" s="94">
+      <c r="Z19" s="87">
         <f t="shared" si="1"/>
         <v>212</v>
       </c>
-      <c r="AA19" s="36"/>
+      <c r="AA19" s="35"/>
     </row>
     <row r="20">
-      <c r="A20" s="98"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="87"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="87"/>
-      <c r="T20" s="87"/>
-      <c r="U20" s="87"/>
-      <c r="V20" s="87"/>
-      <c r="W20" s="87"/>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="87"/>
-      <c r="AA20" s="36"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="35"/>
     </row>
     <row r="21">
-      <c r="A21" s="79"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="79"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="36"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="74"/>
+      <c r="Z21" s="74"/>
+      <c r="AA21" s="35"/>
     </row>
     <row r="22">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="100">
+      <c r="B22" s="94">
         <v>10.0</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="101" t="s">
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="95" t="s">
         <v>51</v>
       </c>
       <c r="G22" s="4"/>
@@ -5555,28 +5531,28 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="79"/>
-      <c r="Z22" s="79"/>
-      <c r="AA22" s="36"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="74"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="74"/>
+      <c r="Z22" s="74"/>
+      <c r="AA22" s="35"/>
     </row>
     <row r="23">
-      <c r="A23" s="79"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -5584,181 +5560,181 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79"/>
-      <c r="X23" s="79"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="79"/>
-      <c r="AA23" s="36"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="74"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="74"/>
+      <c r="Z23" s="74"/>
+      <c r="AA23" s="35"/>
     </row>
     <row r="24">
-      <c r="A24" s="79"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="79"/>
-      <c r="Y24" s="79"/>
-      <c r="Z24" s="79"/>
-      <c r="AA24" s="36"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="74"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="74"/>
+      <c r="Z24" s="74"/>
+      <c r="AA24" s="35"/>
     </row>
     <row r="25">
-      <c r="A25" s="79"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="102" t="s">
+      <c r="A25" s="74"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="66"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="103">
+      <c r="G25" s="61"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="97">
         <v>60.0</v>
       </c>
-      <c r="K25" s="66"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="79"/>
-      <c r="V25" s="79"/>
-      <c r="W25" s="79"/>
-      <c r="X25" s="79"/>
-      <c r="Y25" s="79"/>
-      <c r="Z25" s="79"/>
-      <c r="AA25" s="36"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="74"/>
+      <c r="W25" s="74"/>
+      <c r="X25" s="74"/>
+      <c r="Y25" s="74"/>
+      <c r="Z25" s="74"/>
+      <c r="AA25" s="35"/>
     </row>
     <row r="26">
-      <c r="A26" s="79"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="102" t="s">
+      <c r="A26" s="74"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="66"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="103">
+      <c r="G26" s="61"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="97">
         <v>45.0</v>
       </c>
-      <c r="K26" s="66"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="79"/>
-      <c r="V26" s="79"/>
-      <c r="W26" s="79"/>
-      <c r="X26" s="79"/>
-      <c r="Y26" s="79"/>
-      <c r="Z26" s="79"/>
-      <c r="AA26" s="36"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="74"/>
+      <c r="W26" s="74"/>
+      <c r="X26" s="74"/>
+      <c r="Y26" s="74"/>
+      <c r="Z26" s="74"/>
+      <c r="AA26" s="35"/>
     </row>
     <row r="27">
-      <c r="A27" s="79"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="102" t="s">
+      <c r="A27" s="74"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="66"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="103">
+      <c r="G27" s="61"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="97">
         <v>25.0</v>
       </c>
-      <c r="K27" s="66"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="36"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="74"/>
+      <c r="U27" s="74"/>
+      <c r="V27" s="74"/>
+      <c r="W27" s="74"/>
+      <c r="X27" s="74"/>
+      <c r="Y27" s="74"/>
+      <c r="Z27" s="74"/>
+      <c r="AA27" s="35"/>
     </row>
     <row r="28">
-      <c r="A28" s="79"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="104">
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="98">
         <f>SUM(J25:L27)</f>
         <v>130</v>
       </c>
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="79"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="79"/>
-      <c r="U28" s="79"/>
-      <c r="V28" s="79"/>
-      <c r="W28" s="79"/>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="79"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="74"/>
+      <c r="U28" s="74"/>
+      <c r="V28" s="74"/>
+      <c r="W28" s="74"/>
+      <c r="X28" s="74"/>
+      <c r="Y28" s="74"/>
+      <c r="Z28" s="74"/>
+      <c r="AA28" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5791,272 +5767,272 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="105" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="106">
+      <c r="B2" s="100">
         <v>12.0</v>
       </c>
-      <c r="C2" s="107">
+      <c r="C2" s="101">
         <v>12.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="106">
+      <c r="B3" s="100">
         <v>4.0</v>
       </c>
-      <c r="C3" s="108"/>
+      <c r="C3" s="101"/>
     </row>
     <row r="4">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="109">
+      <c r="B4" s="100">
         <v>10.0</v>
       </c>
-      <c r="C4" s="108"/>
+      <c r="C4" s="101"/>
     </row>
     <row r="5">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="109">
+      <c r="B5" s="100">
         <v>5.0</v>
       </c>
-      <c r="C5" s="108"/>
+      <c r="C5" s="101"/>
     </row>
     <row r="6">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="109">
+      <c r="B6" s="100">
         <v>18.0</v>
       </c>
-      <c r="C6" s="108">
+      <c r="C6" s="101">
         <v>18.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="106">
+      <c r="B7" s="100">
         <v>12.0</v>
       </c>
-      <c r="C7" s="107">
+      <c r="C7" s="101">
         <v>12.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="109">
+      <c r="B8" s="100">
         <v>-1.0</v>
       </c>
-      <c r="C8" s="108"/>
+      <c r="C8" s="101"/>
     </row>
     <row r="9">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="109">
+      <c r="B9" s="100">
         <v>12.0</v>
       </c>
-      <c r="C9" s="108"/>
+      <c r="C9" s="101"/>
     </row>
     <row r="10">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="106">
+      <c r="B10" s="100">
         <v>7.0</v>
       </c>
-      <c r="C10" s="108"/>
+      <c r="C10" s="101"/>
     </row>
     <row r="11">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="109">
+      <c r="B11" s="100">
         <v>16.0</v>
       </c>
-      <c r="C11" s="108"/>
+      <c r="C11" s="101"/>
     </row>
     <row r="12">
-      <c r="A12" s="105" t="s">
+      <c r="A12" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="106">
+      <c r="B12" s="100">
         <v>7.0</v>
       </c>
-      <c r="C12" s="107">
+      <c r="C12" s="101">
         <v>7.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="106">
+      <c r="B13" s="100">
         <v>10.0</v>
       </c>
-      <c r="C13" s="107">
+      <c r="C13" s="101">
         <v>10.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="106">
+      <c r="B14" s="100">
         <v>13.0</v>
       </c>
-      <c r="C14" s="108"/>
+      <c r="C14" s="101"/>
     </row>
     <row r="15">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="106">
+      <c r="B15" s="100">
         <v>19.0</v>
       </c>
-      <c r="C15" s="108"/>
+      <c r="C15" s="101"/>
     </row>
     <row r="16">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="106">
+      <c r="B16" s="100">
         <v>12.0</v>
       </c>
-      <c r="C16" s="107">
+      <c r="C16" s="101">
         <v>12.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="106">
+      <c r="B17" s="100">
         <v>28.0</v>
       </c>
-      <c r="C17" s="107">
+      <c r="C17" s="101">
         <v>28.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="106">
+      <c r="B18" s="100">
         <v>12.0</v>
       </c>
-      <c r="C18" s="108"/>
+      <c r="C18" s="101"/>
     </row>
     <row r="19">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="109">
+      <c r="B19" s="100">
         <v>7.0</v>
       </c>
-      <c r="C19" s="108"/>
+      <c r="C19" s="101"/>
     </row>
     <row r="20">
-      <c r="A20" s="105" t="s">
+      <c r="A20" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="106">
+      <c r="B20" s="100">
         <v>6.0</v>
       </c>
-      <c r="C20" s="107">
+      <c r="C20" s="101">
         <v>6.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="105" t="s">
+      <c r="A21" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="109">
+      <c r="B21" s="100">
         <v>7.0</v>
       </c>
-      <c r="C21" s="108"/>
+      <c r="C21" s="101"/>
     </row>
     <row r="22">
-      <c r="A22" s="105" t="s">
+      <c r="A22" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="100"/>
+      <c r="C22" s="101">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="100"/>
+      <c r="C23" s="101">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="107">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="105" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="109"/>
-      <c r="C23" s="108">
+      <c r="B24" s="100"/>
+      <c r="C24" s="101">
         <v>12.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="105" t="s">
+    <row r="25">
+      <c r="A25" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="100"/>
+      <c r="C25" s="101">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="109"/>
-      <c r="C24" s="107">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="105" t="s">
+      <c r="B26" s="100"/>
+      <c r="C26" s="101">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="109"/>
-      <c r="C25" s="107">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="105" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="109"/>
-      <c r="C26" s="108">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="105" t="s">
+      <c r="B27" s="100"/>
+      <c r="C27" s="101">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="107">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="108">
+      <c r="B28" s="100"/>
+      <c r="C28" s="101">
         <v>21.0</v>
       </c>
     </row>
@@ -6076,99 +6052,99 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="99" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="105" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="103" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="110" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="105">
+      <c r="B2" s="99">
         <f>COUNTIF(Sheet1!D12:AA13,"&lt;&gt;"&amp;"")</f>
         <v>35</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="110" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="105">
+      <c r="A3" s="103" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="99">
         <f>COUNTIF(Sheet1!D14:AA15,"&lt;&gt;"&amp;"")</f>
         <v>16</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="110" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="105">
+      <c r="A4" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="99">
         <f>COUNTIF(Sheet1!D16:AA17,"&lt;&gt;"&amp;"")</f>
         <v>32</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="110" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="105">
+      <c r="A5" s="103" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="99">
         <f>COUNTIF(Sheet1!D18:AA19,"&lt;&gt;"&amp;"")</f>
         <v>19</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="105">
+      <c r="A6" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="99">
         <f>COUNTIF(Sheet1!D20:AA21,"&lt;&gt;"&amp;"")</f>
         <v>35</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="110" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="105">
+      <c r="A7" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="99">
         <f>COUNTIF(Sheet1!D22:AA23,"&lt;&gt;"&amp;"")</f>
         <v>18</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="110" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="105">
+      <c r="A8" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="99">
         <f>COUNTIF(Sheet1!V24:AA25,"&lt;&gt;"&amp;"")</f>
         <v>6</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="110" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="105">
+      <c r="A9" s="103" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="99">
         <f>COUNTIF(Sheet1!D26:AA27,"&lt;&gt;"&amp;"")</f>
         <v>34</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="110" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="105">
+      <c r="A10" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="99">
         <f>COUNTIF(Sheet1!D28:AA29,"&lt;&gt;"&amp;"")</f>
         <v>36</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="110" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="105">
+      <c r="A11" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="99">
         <f>COUNTIF(Sheet1!D30:AA31,"&lt;&gt;"&amp;"")</f>
         <v>25</v>
       </c>
